--- a/Code/Results/Cases/Case_0_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9651268529938123</v>
+        <v>1.020206359968576</v>
       </c>
       <c r="D2">
-        <v>0.9759052430739517</v>
+        <v>1.022057806902428</v>
       </c>
       <c r="E2">
-        <v>0.9755431909305063</v>
+        <v>1.029458181692308</v>
       </c>
       <c r="F2">
-        <v>0.9616971571057803</v>
+        <v>1.036301516212148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032854049649902</v>
+        <v>1.024866737021063</v>
       </c>
       <c r="J2">
-        <v>0.9884031084499929</v>
+        <v>1.025404780017896</v>
       </c>
       <c r="K2">
-        <v>0.9877107851879332</v>
+        <v>1.024893308851434</v>
       </c>
       <c r="L2">
-        <v>0.9873541009547065</v>
+        <v>1.032272034597252</v>
       </c>
       <c r="M2">
-        <v>0.9737172236379212</v>
+        <v>1.039095648603761</v>
       </c>
       <c r="N2">
-        <v>1.000352392030824</v>
+        <v>1.012550559354305</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9724937112443051</v>
+        <v>1.02141517849003</v>
       </c>
       <c r="D3">
-        <v>0.9821461055003667</v>
+        <v>1.023114353652605</v>
       </c>
       <c r="E3">
-        <v>0.9832724565652694</v>
+        <v>1.030644089757828</v>
       </c>
       <c r="F3">
-        <v>0.9733449289576893</v>
+        <v>1.037843058120765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036517995821528</v>
+        <v>1.025051908037323</v>
       </c>
       <c r="J3">
-        <v>0.9937633856093103</v>
+        <v>1.026249332521445</v>
       </c>
       <c r="K3">
-        <v>0.9930126449068435</v>
+        <v>1.025755757306346</v>
       </c>
       <c r="L3">
-        <v>0.9941239402561938</v>
+        <v>1.033265075610306</v>
       </c>
       <c r="M3">
-        <v>0.9843306229036809</v>
+        <v>1.040444822604652</v>
       </c>
       <c r="N3">
-        <v>1.002118178143063</v>
+        <v>1.012828668783757</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9770049605632759</v>
+        <v>1.02219197056058</v>
       </c>
       <c r="D4">
-        <v>0.9859669218855486</v>
+        <v>1.023793342091176</v>
       </c>
       <c r="E4">
-        <v>0.9879607835984686</v>
+        <v>1.031403157238177</v>
       </c>
       <c r="F4">
-        <v>0.980320543578167</v>
+        <v>1.038823120909426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03864724445173</v>
+        <v>1.025161489473237</v>
       </c>
       <c r="J4">
-        <v>0.9970157509276453</v>
+        <v>1.026789984231106</v>
       </c>
       <c r="K4">
-        <v>0.9962377173936979</v>
+        <v>1.026308573244147</v>
       </c>
       <c r="L4">
-        <v>0.998206716453548</v>
+        <v>1.033898802735502</v>
       </c>
       <c r="M4">
-        <v>0.9906624321264772</v>
+        <v>1.041299967126139</v>
       </c>
       <c r="N4">
-        <v>1.003189690923684</v>
+        <v>1.013006692245016</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9788470879572608</v>
+        <v>1.022517256448988</v>
       </c>
       <c r="D5">
-        <v>0.9875270312472463</v>
+        <v>1.024077683128152</v>
       </c>
       <c r="E5">
-        <v>0.9898655197618412</v>
+        <v>1.031720300868926</v>
       </c>
       <c r="F5">
-        <v>0.9831348075248336</v>
+        <v>1.039231001271457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039490855468343</v>
+        <v>1.025205113422967</v>
       </c>
       <c r="J5">
-        <v>0.9983372112866679</v>
+        <v>1.02701589026047</v>
       </c>
       <c r="K5">
-        <v>0.9975499165784136</v>
+        <v>1.026539732439602</v>
       </c>
       <c r="L5">
-        <v>0.9998601033762531</v>
+        <v>1.034163122343347</v>
       </c>
       <c r="M5">
-        <v>0.9932113026485019</v>
+        <v>1.041655223302059</v>
       </c>
       <c r="N5">
-        <v>1.003625074764175</v>
+        <v>1.013081074695027</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.979153369455945</v>
+        <v>1.022571798856968</v>
       </c>
       <c r="D6">
-        <v>0.9877864210198589</v>
+        <v>1.024125360729703</v>
       </c>
       <c r="E6">
-        <v>0.9901816662866284</v>
+        <v>1.031773435737539</v>
       </c>
       <c r="F6">
-        <v>0.9836007983764902</v>
+        <v>1.039299244405169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039629636192888</v>
+        <v>1.025212294925566</v>
       </c>
       <c r="J6">
-        <v>0.9985565498391242</v>
+        <v>1.027053740049851</v>
       </c>
       <c r="K6">
-        <v>0.9977678224278577</v>
+        <v>1.026578472413153</v>
       </c>
       <c r="L6">
-        <v>1.000134225328248</v>
+        <v>1.034207380116977</v>
       </c>
       <c r="M6">
-        <v>0.9936330201215341</v>
+        <v>1.041714624168707</v>
       </c>
       <c r="N6">
-        <v>1.00369734160635</v>
+        <v>1.013093537050721</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9770297810360085</v>
+        <v>1.022196322047777</v>
       </c>
       <c r="D7">
-        <v>0.9859879426976851</v>
+        <v>1.023797145799039</v>
       </c>
       <c r="E7">
-        <v>0.9879864849844534</v>
+        <v>1.031407402638287</v>
       </c>
       <c r="F7">
-        <v>0.9803585941590028</v>
+        <v>1.038828587244755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03865871203893</v>
+        <v>1.025162081973702</v>
       </c>
       <c r="J7">
-        <v>0.9970335816203816</v>
+        <v>1.026793008220916</v>
       </c>
       <c r="K7">
-        <v>0.99625541599002</v>
+        <v>1.026311666880301</v>
       </c>
       <c r="L7">
-        <v>0.9982290471372721</v>
+        <v>1.033902342814379</v>
       </c>
       <c r="M7">
-        <v>0.9906969168123154</v>
+        <v>1.041304730724232</v>
       </c>
       <c r="N7">
-        <v>1.00319556556191</v>
+        <v>1.013007687943849</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9676740493049486</v>
+        <v>1.020616011433081</v>
       </c>
       <c r="D8">
-        <v>0.9780634016472357</v>
+        <v>1.022415845717053</v>
       </c>
       <c r="E8">
-        <v>0.9782260783817317</v>
+        <v>1.029860693100594</v>
       </c>
       <c r="F8">
-        <v>0.9657607859011187</v>
+        <v>1.036826113927952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034146638379592</v>
+        <v>1.024931440272417</v>
       </c>
       <c r="J8">
-        <v>0.9902634013406026</v>
+        <v>1.025691415057484</v>
       </c>
       <c r="K8">
-        <v>0.9895489520123749</v>
+        <v>1.025185870557923</v>
       </c>
       <c r="L8">
-        <v>0.9897092988015811</v>
+        <v>1.032609477358089</v>
       </c>
       <c r="M8">
-        <v>0.9774254303888436</v>
+        <v>1.039555325030591</v>
       </c>
       <c r="N8">
-        <v>1.000965180432098</v>
+        <v>1.012644950189477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9488075338059979</v>
+        <v>1.017789318717754</v>
       </c>
       <c r="D9">
-        <v>0.9620649541915117</v>
+        <v>1.01994549612421</v>
       </c>
       <c r="E9">
-        <v>0.9580810085764975</v>
+        <v>1.027070826163576</v>
       </c>
       <c r="F9">
-        <v>0.934717339437895</v>
+        <v>1.033162546963605</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023942345716734</v>
+        <v>1.024446268802651</v>
       </c>
       <c r="J9">
-        <v>0.9763072147901954</v>
+        <v>1.023705040594673</v>
       </c>
       <c r="K9">
-        <v>0.9758050235125009</v>
+        <v>1.023161350841544</v>
       </c>
       <c r="L9">
-        <v>0.9718928917238079</v>
+        <v>1.030262809857539</v>
       </c>
       <c r="M9">
-        <v>0.9489665185470948</v>
+        <v>1.036334408745721</v>
       </c>
       <c r="N9">
-        <v>0.9963689614230615</v>
+        <v>1.01199077457053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9336853391882539</v>
+        <v>1.015875627551044</v>
       </c>
       <c r="D10">
-        <v>0.9492022131341814</v>
+        <v>1.018273315277654</v>
       </c>
       <c r="E10">
-        <v>0.941427867793116</v>
+        <v>1.025166365554043</v>
       </c>
       <c r="F10">
-        <v>0.9081106329387378</v>
+        <v>1.030627081488777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014696105557608</v>
+        <v>1.024069298437709</v>
       </c>
       <c r="J10">
-        <v>0.9648016311922323</v>
+        <v>1.02234951634915</v>
       </c>
       <c r="K10">
-        <v>0.9645534833764755</v>
+        <v>1.021783468249857</v>
       </c>
       <c r="L10">
-        <v>0.9569418138885365</v>
+        <v>1.028651123295576</v>
       </c>
       <c r="M10">
-        <v>0.9243639827176937</v>
+        <v>1.034091987348629</v>
       </c>
       <c r="N10">
-        <v>0.9925820347779469</v>
+        <v>1.011544296912382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9260982270115503</v>
+        <v>1.015039803282574</v>
       </c>
       <c r="D11">
-        <v>0.9427258662784035</v>
+        <v>1.017543037200454</v>
       </c>
       <c r="E11">
-        <v>0.9328699667938897</v>
+        <v>1.024330836204852</v>
       </c>
       <c r="F11">
-        <v>0.8940828972795435</v>
+        <v>1.029506542180896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00967005694429</v>
+        <v>1.023893219417235</v>
       </c>
       <c r="J11">
-        <v>0.9589048661467228</v>
+        <v>1.021754930079198</v>
       </c>
       <c r="K11">
-        <v>0.9588152301581586</v>
+        <v>1.021179940049249</v>
       </c>
       <c r="L11">
-        <v>0.9491795288869583</v>
+        <v>1.027941745298043</v>
       </c>
       <c r="M11">
-        <v>0.9113228247843828</v>
+        <v>1.033097886177078</v>
       </c>
       <c r="N11">
-        <v>0.9906421886019978</v>
+        <v>1.011348440251087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9230449690456618</v>
+        <v>1.01472823957028</v>
       </c>
       <c r="D12">
-        <v>0.9401137798304379</v>
+        <v>1.017270826821672</v>
       </c>
       <c r="E12">
-        <v>0.9293820667904894</v>
+        <v>1.024018819424981</v>
       </c>
       <c r="F12">
-        <v>0.8882919842278498</v>
+        <v>1.029086865561778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.007567444454137</v>
+        <v>1.023825870760704</v>
       </c>
       <c r="J12">
-        <v>0.9565052579610284</v>
+        <v>1.02153290767634</v>
       </c>
       <c r="K12">
-        <v>0.9564858566551254</v>
+        <v>1.020954708315865</v>
       </c>
       <c r="L12">
-        <v>0.9459999274472554</v>
+        <v>1.027676494686038</v>
       </c>
       <c r="M12">
-        <v>0.9059254983209567</v>
+        <v>1.032725109414528</v>
       </c>
       <c r="N12">
-        <v>0.9898530182782229</v>
+        <v>1.011275304030758</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9237126437911157</v>
+        <v>1.014795121251738</v>
       </c>
       <c r="D13">
-        <v>0.9406853016076044</v>
+        <v>1.017329260298364</v>
       </c>
       <c r="E13">
-        <v>0.9301470796868833</v>
+        <v>1.024085823858872</v>
       </c>
       <c r="F13">
-        <v>0.8895658911039692</v>
+        <v>1.02917704500971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008031340118363</v>
+        <v>1.02384040554532</v>
       </c>
       <c r="J13">
-        <v>0.9570313756974698</v>
+        <v>1.02158058535083</v>
       </c>
       <c r="K13">
-        <v>0.9569962850838678</v>
+        <v>1.021003069312787</v>
       </c>
       <c r="L13">
-        <v>0.9466981286914422</v>
+        <v>1.02773347176211</v>
       </c>
       <c r="M13">
-        <v>0.9071135070885068</v>
+        <v>1.032805231571921</v>
       </c>
       <c r="N13">
-        <v>0.9900260333992034</v>
+        <v>1.011291009587544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9258513586716997</v>
+        <v>1.015014071928757</v>
       </c>
       <c r="D14">
-        <v>0.9425148044909623</v>
+        <v>1.017520555752961</v>
       </c>
       <c r="E14">
-        <v>0.9325889392514984</v>
+        <v>1.024305078916408</v>
       </c>
       <c r="F14">
-        <v>0.8936179293169367</v>
+        <v>1.029471922450175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009501818729891</v>
+        <v>1.023887692124988</v>
       </c>
       <c r="J14">
-        <v>0.9587114408204701</v>
+        <v>1.021736601552811</v>
       </c>
       <c r="K14">
-        <v>0.958627341255631</v>
+        <v>1.02116134394565</v>
       </c>
       <c r="L14">
-        <v>0.9489236896528778</v>
+        <v>1.027919855585727</v>
       </c>
       <c r="M14">
-        <v>0.9108897535442757</v>
+        <v>1.033067144509454</v>
       </c>
       <c r="N14">
-        <v>0.9905785709187636</v>
+        <v>1.011342402707767</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9271343916502264</v>
+        <v>1.01514882804355</v>
       </c>
       <c r="D15">
-        <v>0.9436114936846608</v>
+        <v>1.017638292377185</v>
       </c>
       <c r="E15">
-        <v>0.9340476672716991</v>
+        <v>1.024439947817834</v>
       </c>
       <c r="F15">
-        <v>0.8960283907632888</v>
+        <v>1.0296531462561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010372868326794</v>
+        <v>1.023916568744144</v>
       </c>
       <c r="J15">
-        <v>0.9597156078574214</v>
+        <v>1.021832573098626</v>
       </c>
       <c r="K15">
-        <v>0.9596030020677369</v>
+        <v>1.021258721871267</v>
       </c>
       <c r="L15">
-        <v>0.9502510155561363</v>
+        <v>1.028034459276922</v>
       </c>
       <c r="M15">
-        <v>0.9131342995951447</v>
+        <v>1.033228049288325</v>
       </c>
       <c r="N15">
-        <v>0.9909088512651728</v>
+        <v>1.011374016314519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9341616142033334</v>
+        <v>1.015930945245984</v>
       </c>
       <c r="D16">
-        <v>0.9496081577062189</v>
+        <v>1.01832164891918</v>
       </c>
       <c r="E16">
-        <v>0.9419602183379774</v>
+        <v>1.025221585141292</v>
       </c>
       <c r="F16">
-        <v>0.9089750151218238</v>
+        <v>1.030700965982381</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015002585084893</v>
+        <v>1.024080712292306</v>
       </c>
       <c r="J16">
-        <v>0.9651688386133599</v>
+        <v>1.022388814577595</v>
       </c>
       <c r="K16">
-        <v>0.9649114671311022</v>
+        <v>1.021823375587979</v>
       </c>
       <c r="L16">
-        <v>0.9574228707983796</v>
+        <v>1.028697957648124</v>
       </c>
       <c r="M16">
-        <v>0.9251660254604134</v>
+        <v>1.034157471292919</v>
       </c>
       <c r="N16">
-        <v>0.9927028585528944</v>
+        <v>1.011557241455187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9382526463924546</v>
+        <v>1.016419608243189</v>
       </c>
       <c r="D17">
-        <v>0.9530925496749757</v>
+        <v>1.018748623880118</v>
       </c>
       <c r="E17">
-        <v>0.9465107853274455</v>
+        <v>1.025708951604482</v>
       </c>
       <c r="F17">
-        <v>0.91632569549571</v>
+        <v>1.031352130755798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017593079416172</v>
+        <v>1.02418022531991</v>
       </c>
       <c r="J17">
-        <v>0.9683094772868784</v>
+        <v>1.022735672570994</v>
       </c>
       <c r="K17">
-        <v>0.9679762568417882</v>
+        <v>1.022175709006006</v>
       </c>
       <c r="L17">
-        <v>0.9615265104906758</v>
+        <v>1.029111053152437</v>
       </c>
       <c r="M17">
-        <v>0.9319792083128015</v>
+        <v>1.034734249414734</v>
       </c>
       <c r="N17">
-        <v>0.9937363449115879</v>
+        <v>1.011671492285435</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9405456247408965</v>
+        <v>1.016703945571227</v>
       </c>
       <c r="D18">
-        <v>0.9550436948291994</v>
+        <v>1.018997073066922</v>
       </c>
       <c r="E18">
-        <v>0.9490445811516504</v>
+        <v>1.025992175960166</v>
       </c>
       <c r="F18">
-        <v>0.9203894848676805</v>
+        <v>1.03172976096854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019012742802032</v>
+        <v>1.024237030973169</v>
       </c>
       <c r="J18">
-        <v>0.9700594837370968</v>
+        <v>1.022937253647956</v>
       </c>
       <c r="K18">
-        <v>0.9696863395197499</v>
+        <v>1.022380555072615</v>
       </c>
       <c r="L18">
-        <v>0.9638049277495638</v>
+        <v>1.029350896432591</v>
       </c>
       <c r="M18">
-        <v>0.9357401206739546</v>
+        <v>1.035068447346764</v>
       </c>
       <c r="N18">
-        <v>0.9943122990618189</v>
+        <v>1.011737889312819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9413131715146195</v>
+        <v>1.016800780609358</v>
       </c>
       <c r="D19">
-        <v>0.9556965509213853</v>
+        <v>1.019081686938627</v>
       </c>
       <c r="E19">
-        <v>0.9498901438230615</v>
+        <v>1.026088571184201</v>
       </c>
       <c r="F19">
-        <v>0.9217410574578951</v>
+        <v>1.031858154367249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019482876877122</v>
+        <v>1.024256190569387</v>
       </c>
       <c r="J19">
-        <v>0.9706436762319209</v>
+        <v>1.023005863435017</v>
       </c>
       <c r="K19">
-        <v>0.970257574526988</v>
+        <v>1.022450290195136</v>
       </c>
       <c r="L19">
-        <v>0.9645642340869993</v>
+        <v>1.029432489599611</v>
       </c>
       <c r="M19">
-        <v>0.9369900435876881</v>
+        <v>1.035182023940206</v>
       </c>
       <c r="N19">
-        <v>0.9945045783056119</v>
+        <v>1.011760487861415</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9378237466481312</v>
+        <v>1.016367251013211</v>
       </c>
       <c r="D20">
-        <v>0.9527274512380701</v>
+        <v>1.018702875505945</v>
       </c>
       <c r="E20">
-        <v>0.9460355296416827</v>
+        <v>1.025656770423228</v>
       </c>
       <c r="F20">
-        <v>0.9155611610355457</v>
+        <v>1.03128249312955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017324984831407</v>
+        <v>1.024169676732061</v>
       </c>
       <c r="J20">
-        <v>0.9679813327568362</v>
+        <v>1.022698534186213</v>
       </c>
       <c r="K20">
-        <v>0.9676557841050369</v>
+        <v>1.022137975781349</v>
       </c>
       <c r="L20">
-        <v>0.9610986371183173</v>
+        <v>1.029066846747035</v>
       </c>
       <c r="M20">
-        <v>0.9312711964959998</v>
+        <v>1.034672597281755</v>
       </c>
       <c r="N20">
-        <v>0.9936283538414279</v>
+        <v>1.011659259489206</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9252290499307216</v>
+        <v>1.014949626998123</v>
       </c>
       <c r="D21">
-        <v>0.9419826538656196</v>
+        <v>1.017464250464804</v>
       </c>
       <c r="E21">
-        <v>0.9318797645796922</v>
+        <v>1.024240559938152</v>
       </c>
       <c r="F21">
-        <v>0.8924433278080687</v>
+        <v>1.029385184304927</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009076357201106</v>
+        <v>1.023873821223951</v>
       </c>
       <c r="J21">
-        <v>0.9582233951784397</v>
+        <v>1.021690691035205</v>
       </c>
       <c r="K21">
-        <v>0.9581533618586306</v>
+        <v>1.021114765273417</v>
       </c>
       <c r="L21">
-        <v>0.9482778080159611</v>
+        <v>1.027865018896922</v>
       </c>
       <c r="M21">
-        <v>0.9097955003700384</v>
+        <v>1.032990115355817</v>
       </c>
       <c r="N21">
-        <v>0.9904180563189364</v>
+        <v>1.011327279432711</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9158326998996021</v>
+        <v>1.014051926558829</v>
       </c>
       <c r="D22">
-        <v>0.9339272253375461</v>
+        <v>1.016679956109357</v>
       </c>
       <c r="E22">
-        <v>0.9210305931074834</v>
+        <v>1.023340489607611</v>
       </c>
       <c r="F22">
-        <v>0.8742423476364902</v>
+        <v>1.0281722329909</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.002401594405371</v>
+        <v>1.023676543338773</v>
       </c>
       <c r="J22">
-        <v>0.9507694393504822</v>
+        <v>1.02105026008835</v>
       </c>
       <c r="K22">
-        <v>0.9509319698302461</v>
+        <v>1.020465321391271</v>
       </c>
       <c r="L22">
-        <v>0.9383474431846883</v>
+        <v>1.027099207490928</v>
       </c>
       <c r="M22">
-        <v>0.8927974959953836</v>
+        <v>1.031911860295515</v>
       </c>
       <c r="N22">
-        <v>0.9879672297364691</v>
+        <v>1.011116311746084</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9210063396003039</v>
+        <v>1.014528427367476</v>
       </c>
       <c r="D23">
-        <v>0.9383675573747082</v>
+        <v>1.017096255455992</v>
       </c>
       <c r="E23">
-        <v>0.9270380198635179</v>
+        <v>1.023818557891494</v>
       </c>
       <c r="F23">
-        <v>0.8843752513423631</v>
+        <v>1.028817159344181</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006136425316914</v>
+        <v>1.023782196819635</v>
       </c>
       <c r="J23">
-        <v>0.9548939115694358</v>
+        <v>1.021390412203231</v>
       </c>
       <c r="K23">
-        <v>0.9549235899607833</v>
+        <v>1.020810189546404</v>
       </c>
       <c r="L23">
-        <v>0.9438577305006806</v>
+        <v>1.02750615254289</v>
       </c>
       <c r="M23">
-        <v>0.9022704453603074</v>
+        <v>1.03248541604529</v>
       </c>
       <c r="N23">
-        <v>0.9893231649304924</v>
+        <v>1.011228364136729</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9380178313305403</v>
+        <v>1.016390911127785</v>
       </c>
       <c r="D24">
-        <v>0.9528926702805983</v>
+        <v>1.018723549074417</v>
       </c>
       <c r="E24">
-        <v>0.9462506430239104</v>
+        <v>1.025680352090852</v>
       </c>
       <c r="F24">
-        <v>0.9159073002783968</v>
+        <v>1.03131396611886</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017446402481823</v>
+        <v>1.024174447011528</v>
       </c>
       <c r="J24">
-        <v>0.9681298557847188</v>
+        <v>1.022715317695058</v>
       </c>
       <c r="K24">
-        <v>0.9678008274835271</v>
+        <v>1.02215502785258</v>
       </c>
       <c r="L24">
-        <v>0.9612923243204704</v>
+        <v>1.029086825142385</v>
       </c>
       <c r="M24">
-        <v>0.9315917632915046</v>
+        <v>1.03470046210588</v>
       </c>
       <c r="N24">
-        <v>0.9936772319314211</v>
+        <v>1.011664787715577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.954040237982186</v>
+        <v>1.018525161123506</v>
       </c>
       <c r="D25">
-        <v>0.9665060366156893</v>
+        <v>1.02058853013076</v>
       </c>
       <c r="E25">
-        <v>0.9637335733700748</v>
+        <v>1.027799827053091</v>
       </c>
       <c r="F25">
-        <v>0.9435517256674323</v>
+        <v>1.034125891266988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026918115206611</v>
+        <v>1.024581084450274</v>
       </c>
       <c r="J25">
-        <v>0.9802198986883575</v>
+        <v>1.024224011147354</v>
       </c>
       <c r="K25">
-        <v>0.9796475533638549</v>
+        <v>1.023689644860536</v>
       </c>
       <c r="L25">
-        <v>0.9769222389704589</v>
+        <v>1.030877712702631</v>
       </c>
       <c r="M25">
-        <v>0.957094459549172</v>
+        <v>1.037183691109768</v>
       </c>
       <c r="N25">
-        <v>0.9976572759973403</v>
+        <v>1.012161698658267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020206359968576</v>
+        <v>0.9651268529938116</v>
       </c>
       <c r="D2">
-        <v>1.022057806902428</v>
+        <v>0.9759052430739509</v>
       </c>
       <c r="E2">
-        <v>1.029458181692308</v>
+        <v>0.975543190930506</v>
       </c>
       <c r="F2">
-        <v>1.036301516212148</v>
+        <v>0.9616971571057803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024866737021063</v>
+        <v>1.032854049649902</v>
       </c>
       <c r="J2">
-        <v>1.025404780017896</v>
+        <v>0.9884031084499925</v>
       </c>
       <c r="K2">
-        <v>1.024893308851434</v>
+        <v>0.9877107851879324</v>
       </c>
       <c r="L2">
-        <v>1.032272034597252</v>
+        <v>0.9873541009547061</v>
       </c>
       <c r="M2">
-        <v>1.039095648603761</v>
+        <v>0.973717223637921</v>
       </c>
       <c r="N2">
-        <v>1.012550559354305</v>
+        <v>1.000352392030824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02141517849003</v>
+        <v>0.9724937112443046</v>
       </c>
       <c r="D3">
-        <v>1.023114353652605</v>
+        <v>0.9821461055003659</v>
       </c>
       <c r="E3">
-        <v>1.030644089757828</v>
+        <v>0.9832724565652691</v>
       </c>
       <c r="F3">
-        <v>1.037843058120765</v>
+        <v>0.9733449289576888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025051908037323</v>
+        <v>1.036517995821528</v>
       </c>
       <c r="J3">
-        <v>1.026249332521445</v>
+        <v>0.99376338560931</v>
       </c>
       <c r="K3">
-        <v>1.025755757306346</v>
+        <v>0.9930126449068428</v>
       </c>
       <c r="L3">
-        <v>1.033265075610306</v>
+        <v>0.9941239402561934</v>
       </c>
       <c r="M3">
-        <v>1.040444822604652</v>
+        <v>0.9843306229036803</v>
       </c>
       <c r="N3">
-        <v>1.012828668783757</v>
+        <v>1.002118178143063</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02219197056058</v>
+        <v>0.977004960563276</v>
       </c>
       <c r="D4">
-        <v>1.023793342091176</v>
+        <v>0.985966921885549</v>
       </c>
       <c r="E4">
-        <v>1.031403157238177</v>
+        <v>0.9879607835984686</v>
       </c>
       <c r="F4">
-        <v>1.038823120909426</v>
+        <v>0.9803205435781668</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025161489473237</v>
+        <v>1.03864724445173</v>
       </c>
       <c r="J4">
-        <v>1.026789984231106</v>
+        <v>0.9970157509276454</v>
       </c>
       <c r="K4">
-        <v>1.026308573244147</v>
+        <v>0.9962377173936983</v>
       </c>
       <c r="L4">
-        <v>1.033898802735502</v>
+        <v>0.998206716453548</v>
       </c>
       <c r="M4">
-        <v>1.041299967126139</v>
+        <v>0.9906624321264771</v>
       </c>
       <c r="N4">
-        <v>1.013006692245016</v>
+        <v>1.003189690923684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022517256448988</v>
+        <v>0.9788470879572601</v>
       </c>
       <c r="D5">
-        <v>1.024077683128152</v>
+        <v>0.9875270312472456</v>
       </c>
       <c r="E5">
-        <v>1.031720300868926</v>
+        <v>0.9898655197618406</v>
       </c>
       <c r="F5">
-        <v>1.039231001271457</v>
+        <v>0.9831348075248331</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025205113422967</v>
+        <v>1.039490855468343</v>
       </c>
       <c r="J5">
-        <v>1.02701589026047</v>
+        <v>0.9983372112866673</v>
       </c>
       <c r="K5">
-        <v>1.026539732439602</v>
+        <v>0.997549916578413</v>
       </c>
       <c r="L5">
-        <v>1.034163122343347</v>
+        <v>0.9998601033762525</v>
       </c>
       <c r="M5">
-        <v>1.041655223302059</v>
+        <v>0.9932113026485013</v>
       </c>
       <c r="N5">
-        <v>1.013081074695027</v>
+        <v>1.003625074764175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022571798856968</v>
+        <v>0.9791533694559454</v>
       </c>
       <c r="D6">
-        <v>1.024125360729703</v>
+        <v>0.9877864210198593</v>
       </c>
       <c r="E6">
-        <v>1.031773435737539</v>
+        <v>0.9901816662866287</v>
       </c>
       <c r="F6">
-        <v>1.039299244405169</v>
+        <v>0.9836007983764902</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025212294925566</v>
+        <v>1.039629636192888</v>
       </c>
       <c r="J6">
-        <v>1.027053740049851</v>
+        <v>0.9985565498391246</v>
       </c>
       <c r="K6">
-        <v>1.026578472413153</v>
+        <v>0.997767822427858</v>
       </c>
       <c r="L6">
-        <v>1.034207380116977</v>
+        <v>1.000134225328248</v>
       </c>
       <c r="M6">
-        <v>1.041714624168707</v>
+        <v>0.9936330201215342</v>
       </c>
       <c r="N6">
-        <v>1.013093537050721</v>
+        <v>1.00369734160635</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022196322047777</v>
+        <v>0.9770297810360086</v>
       </c>
       <c r="D7">
-        <v>1.023797145799039</v>
+        <v>0.9859879426976852</v>
       </c>
       <c r="E7">
-        <v>1.031407402638287</v>
+        <v>0.9879864849844533</v>
       </c>
       <c r="F7">
-        <v>1.038828587244755</v>
+        <v>0.9803585941590029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025162081973702</v>
+        <v>1.03865871203893</v>
       </c>
       <c r="J7">
-        <v>1.026793008220916</v>
+        <v>0.9970335816203817</v>
       </c>
       <c r="K7">
-        <v>1.026311666880301</v>
+        <v>0.9962554159900201</v>
       </c>
       <c r="L7">
-        <v>1.033902342814379</v>
+        <v>0.9982290471372719</v>
       </c>
       <c r="M7">
-        <v>1.041304730724232</v>
+        <v>0.9906969168123155</v>
       </c>
       <c r="N7">
-        <v>1.013007687943849</v>
+        <v>1.00319556556191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020616011433081</v>
+        <v>0.967674049304949</v>
       </c>
       <c r="D8">
-        <v>1.022415845717053</v>
+        <v>0.978063401647236</v>
       </c>
       <c r="E8">
-        <v>1.029860693100594</v>
+        <v>0.978226078381732</v>
       </c>
       <c r="F8">
-        <v>1.036826113927952</v>
+        <v>0.9657607859011191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024931440272417</v>
+        <v>1.034146638379592</v>
       </c>
       <c r="J8">
-        <v>1.025691415057484</v>
+        <v>0.9902634013406031</v>
       </c>
       <c r="K8">
-        <v>1.025185870557923</v>
+        <v>0.9895489520123754</v>
       </c>
       <c r="L8">
-        <v>1.032609477358089</v>
+        <v>0.9897092988015813</v>
       </c>
       <c r="M8">
-        <v>1.039555325030591</v>
+        <v>0.9774254303888439</v>
       </c>
       <c r="N8">
-        <v>1.012644950189477</v>
+        <v>1.000965180432099</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017789318717754</v>
+        <v>0.9488075338059988</v>
       </c>
       <c r="D9">
-        <v>1.01994549612421</v>
+        <v>0.9620649541915126</v>
       </c>
       <c r="E9">
-        <v>1.027070826163576</v>
+        <v>0.9580810085764981</v>
       </c>
       <c r="F9">
-        <v>1.033162546963605</v>
+        <v>0.9347173394378958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024446268802651</v>
+        <v>1.023942345716734</v>
       </c>
       <c r="J9">
-        <v>1.023705040594673</v>
+        <v>0.9763072147901961</v>
       </c>
       <c r="K9">
-        <v>1.023161350841544</v>
+        <v>0.9758050235125016</v>
       </c>
       <c r="L9">
-        <v>1.030262809857539</v>
+        <v>0.9718928917238084</v>
       </c>
       <c r="M9">
-        <v>1.036334408745721</v>
+        <v>0.9489665185470956</v>
       </c>
       <c r="N9">
-        <v>1.01199077457053</v>
+        <v>0.9963689614230617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015875627551044</v>
+        <v>0.9336853391882535</v>
       </c>
       <c r="D10">
-        <v>1.018273315277654</v>
+        <v>0.9492022131341808</v>
       </c>
       <c r="E10">
-        <v>1.025166365554043</v>
+        <v>0.941427867793115</v>
       </c>
       <c r="F10">
-        <v>1.030627081488777</v>
+        <v>0.9081106329387366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024069298437709</v>
+        <v>1.014696105557608</v>
       </c>
       <c r="J10">
-        <v>1.02234951634915</v>
+        <v>0.9648016311922316</v>
       </c>
       <c r="K10">
-        <v>1.021783468249857</v>
+        <v>0.9645534833764753</v>
       </c>
       <c r="L10">
-        <v>1.028651123295576</v>
+        <v>0.9569418138885356</v>
       </c>
       <c r="M10">
-        <v>1.034091987348629</v>
+        <v>0.9243639827176926</v>
       </c>
       <c r="N10">
-        <v>1.011544296912382</v>
+        <v>0.9925820347779467</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015039803282574</v>
+        <v>0.9260982270115502</v>
       </c>
       <c r="D11">
-        <v>1.017543037200454</v>
+        <v>0.9427258662784036</v>
       </c>
       <c r="E11">
-        <v>1.024330836204852</v>
+        <v>0.9328699667938893</v>
       </c>
       <c r="F11">
-        <v>1.029506542180896</v>
+        <v>0.8940828972795429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023893219417235</v>
+        <v>1.00967005694429</v>
       </c>
       <c r="J11">
-        <v>1.021754930079198</v>
+        <v>0.9589048661467228</v>
       </c>
       <c r="K11">
-        <v>1.021179940049249</v>
+        <v>0.9588152301581587</v>
       </c>
       <c r="L11">
-        <v>1.027941745298043</v>
+        <v>0.9491795288869579</v>
       </c>
       <c r="M11">
-        <v>1.033097886177078</v>
+        <v>0.9113228247843822</v>
       </c>
       <c r="N11">
-        <v>1.011348440251087</v>
+        <v>0.9906421886019978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01472823957028</v>
+        <v>0.9230449690456622</v>
       </c>
       <c r="D12">
-        <v>1.017270826821672</v>
+        <v>0.9401137798304383</v>
       </c>
       <c r="E12">
-        <v>1.024018819424981</v>
+        <v>0.9293820667904897</v>
       </c>
       <c r="F12">
-        <v>1.029086865561778</v>
+        <v>0.8882919842278499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023825870760704</v>
+        <v>1.007567444454137</v>
       </c>
       <c r="J12">
-        <v>1.02153290767634</v>
+        <v>0.9565052579610287</v>
       </c>
       <c r="K12">
-        <v>1.020954708315865</v>
+        <v>0.9564858566551258</v>
       </c>
       <c r="L12">
-        <v>1.027676494686038</v>
+        <v>0.9459999274472557</v>
       </c>
       <c r="M12">
-        <v>1.032725109414528</v>
+        <v>0.9059254983209568</v>
       </c>
       <c r="N12">
-        <v>1.011275304030758</v>
+        <v>0.989853018278223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014795121251738</v>
+        <v>0.923712643791116</v>
       </c>
       <c r="D13">
-        <v>1.017329260298364</v>
+        <v>0.9406853016076046</v>
       </c>
       <c r="E13">
-        <v>1.024085823858872</v>
+        <v>0.9301470796868835</v>
       </c>
       <c r="F13">
-        <v>1.02917704500971</v>
+        <v>0.8895658911039694</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02384040554532</v>
+        <v>1.008031340118363</v>
       </c>
       <c r="J13">
-        <v>1.02158058535083</v>
+        <v>0.9570313756974698</v>
       </c>
       <c r="K13">
-        <v>1.021003069312787</v>
+        <v>0.9569962850838679</v>
       </c>
       <c r="L13">
-        <v>1.02773347176211</v>
+        <v>0.9466981286914424</v>
       </c>
       <c r="M13">
-        <v>1.032805231571921</v>
+        <v>0.907113507088507</v>
       </c>
       <c r="N13">
-        <v>1.011291009587544</v>
+        <v>0.9900260333992036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015014071928757</v>
+        <v>0.9258513586716981</v>
       </c>
       <c r="D14">
-        <v>1.017520555752961</v>
+        <v>0.9425148044909604</v>
       </c>
       <c r="E14">
-        <v>1.024305078916408</v>
+        <v>0.9325889392514966</v>
       </c>
       <c r="F14">
-        <v>1.029471922450175</v>
+        <v>0.8936179293169348</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023887692124988</v>
+        <v>1.009501818729891</v>
       </c>
       <c r="J14">
-        <v>1.021736601552811</v>
+        <v>0.9587114408204684</v>
       </c>
       <c r="K14">
-        <v>1.02116134394565</v>
+        <v>0.9586273412556292</v>
       </c>
       <c r="L14">
-        <v>1.027919855585727</v>
+        <v>0.9489236896528761</v>
       </c>
       <c r="M14">
-        <v>1.033067144509454</v>
+        <v>0.9108897535442739</v>
       </c>
       <c r="N14">
-        <v>1.011342402707767</v>
+        <v>0.990578570918763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01514882804355</v>
+        <v>0.9271343916502266</v>
       </c>
       <c r="D15">
-        <v>1.017638292377185</v>
+        <v>0.943611493684661</v>
       </c>
       <c r="E15">
-        <v>1.024439947817834</v>
+        <v>0.9340476672716993</v>
       </c>
       <c r="F15">
-        <v>1.0296531462561</v>
+        <v>0.8960283907632892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023916568744144</v>
+        <v>1.010372868326793</v>
       </c>
       <c r="J15">
-        <v>1.021832573098626</v>
+        <v>0.9597156078574216</v>
       </c>
       <c r="K15">
-        <v>1.021258721871267</v>
+        <v>0.9596030020677372</v>
       </c>
       <c r="L15">
-        <v>1.028034459276922</v>
+        <v>0.9502510155561366</v>
       </c>
       <c r="M15">
-        <v>1.033228049288325</v>
+        <v>0.913134299595145</v>
       </c>
       <c r="N15">
-        <v>1.011374016314519</v>
+        <v>0.9909088512651728</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015930945245984</v>
+        <v>0.9341616142033332</v>
       </c>
       <c r="D16">
-        <v>1.01832164891918</v>
+        <v>0.9496081577062188</v>
       </c>
       <c r="E16">
-        <v>1.025221585141292</v>
+        <v>0.9419602183379767</v>
       </c>
       <c r="F16">
-        <v>1.030700965982381</v>
+        <v>0.9089750151218232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024080712292306</v>
+        <v>1.015002585084893</v>
       </c>
       <c r="J16">
-        <v>1.022388814577595</v>
+        <v>0.9651688386133597</v>
       </c>
       <c r="K16">
-        <v>1.021823375587979</v>
+        <v>0.9649114671311021</v>
       </c>
       <c r="L16">
-        <v>1.028697957648124</v>
+        <v>0.9574228707983793</v>
       </c>
       <c r="M16">
-        <v>1.034157471292919</v>
+        <v>0.9251660254604129</v>
       </c>
       <c r="N16">
-        <v>1.011557241455187</v>
+        <v>0.9927028585528944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016419608243189</v>
+        <v>0.9382526463924548</v>
       </c>
       <c r="D17">
-        <v>1.018748623880118</v>
+        <v>0.9530925496749759</v>
       </c>
       <c r="E17">
-        <v>1.025708951604482</v>
+        <v>0.9465107853274455</v>
       </c>
       <c r="F17">
-        <v>1.031352130755798</v>
+        <v>0.91632569549571</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02418022531991</v>
+        <v>1.017593079416172</v>
       </c>
       <c r="J17">
-        <v>1.022735672570994</v>
+        <v>0.9683094772868787</v>
       </c>
       <c r="K17">
-        <v>1.022175709006006</v>
+        <v>0.9679762568417886</v>
       </c>
       <c r="L17">
-        <v>1.029111053152437</v>
+        <v>0.9615265104906759</v>
       </c>
       <c r="M17">
-        <v>1.034734249414734</v>
+        <v>0.9319792083128013</v>
       </c>
       <c r="N17">
-        <v>1.011671492285435</v>
+        <v>0.993736344911588</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016703945571227</v>
+        <v>0.9405456247408959</v>
       </c>
       <c r="D18">
-        <v>1.018997073066922</v>
+        <v>0.9550436948291985</v>
       </c>
       <c r="E18">
-        <v>1.025992175960166</v>
+        <v>0.9490445811516494</v>
       </c>
       <c r="F18">
-        <v>1.03172976096854</v>
+        <v>0.9203894848676799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024237030973169</v>
+        <v>1.019012742802032</v>
       </c>
       <c r="J18">
-        <v>1.022937253647956</v>
+        <v>0.9700594837370962</v>
       </c>
       <c r="K18">
-        <v>1.022380555072615</v>
+        <v>0.9696863395197494</v>
       </c>
       <c r="L18">
-        <v>1.029350896432591</v>
+        <v>0.9638049277495629</v>
       </c>
       <c r="M18">
-        <v>1.035068447346764</v>
+        <v>0.9357401206739541</v>
       </c>
       <c r="N18">
-        <v>1.011737889312819</v>
+        <v>0.9943122990618187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016800780609358</v>
+        <v>0.9413131715146184</v>
       </c>
       <c r="D19">
-        <v>1.019081686938627</v>
+        <v>0.9556965509213839</v>
       </c>
       <c r="E19">
-        <v>1.026088571184201</v>
+        <v>0.9498901438230601</v>
       </c>
       <c r="F19">
-        <v>1.031858154367249</v>
+        <v>0.9217410574578937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024256190569387</v>
+        <v>1.019482876877121</v>
       </c>
       <c r="J19">
-        <v>1.023005863435017</v>
+        <v>0.9706436762319197</v>
       </c>
       <c r="K19">
-        <v>1.022450290195136</v>
+        <v>0.9702575745269868</v>
       </c>
       <c r="L19">
-        <v>1.029432489599611</v>
+        <v>0.964564234086998</v>
       </c>
       <c r="M19">
-        <v>1.035182023940206</v>
+        <v>0.9369900435876867</v>
       </c>
       <c r="N19">
-        <v>1.011760487861415</v>
+        <v>0.9945045783056116</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016367251013211</v>
+        <v>0.9378237466481321</v>
       </c>
       <c r="D20">
-        <v>1.018702875505945</v>
+        <v>0.9527274512380711</v>
       </c>
       <c r="E20">
-        <v>1.025656770423228</v>
+        <v>0.9460355296416834</v>
       </c>
       <c r="F20">
-        <v>1.03128249312955</v>
+        <v>0.9155611610355464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024169676732061</v>
+        <v>1.017324984831407</v>
       </c>
       <c r="J20">
-        <v>1.022698534186213</v>
+        <v>0.9679813327568371</v>
       </c>
       <c r="K20">
-        <v>1.022137975781349</v>
+        <v>0.9676557841050378</v>
       </c>
       <c r="L20">
-        <v>1.029066846747035</v>
+        <v>0.961098637118318</v>
       </c>
       <c r="M20">
-        <v>1.034672597281755</v>
+        <v>0.9312711964960003</v>
       </c>
       <c r="N20">
-        <v>1.011659259489206</v>
+        <v>0.9936283538414281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014949626998123</v>
+        <v>0.9252290499307209</v>
       </c>
       <c r="D21">
-        <v>1.017464250464804</v>
+        <v>0.9419826538656194</v>
       </c>
       <c r="E21">
-        <v>1.024240559938152</v>
+        <v>0.9318797645796916</v>
       </c>
       <c r="F21">
-        <v>1.029385184304927</v>
+        <v>0.8924433278080683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023873821223951</v>
+        <v>1.009076357201106</v>
       </c>
       <c r="J21">
-        <v>1.021690691035205</v>
+        <v>0.9582233951784391</v>
       </c>
       <c r="K21">
-        <v>1.021114765273417</v>
+        <v>0.9581533618586302</v>
       </c>
       <c r="L21">
-        <v>1.027865018896922</v>
+        <v>0.9482778080159607</v>
       </c>
       <c r="M21">
-        <v>1.032990115355817</v>
+        <v>0.9097955003700381</v>
       </c>
       <c r="N21">
-        <v>1.011327279432711</v>
+        <v>0.9904180563189363</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014051926558829</v>
+        <v>0.915832699899603</v>
       </c>
       <c r="D22">
-        <v>1.016679956109357</v>
+        <v>0.933927225337547</v>
       </c>
       <c r="E22">
-        <v>1.023340489607611</v>
+        <v>0.9210305931074843</v>
       </c>
       <c r="F22">
-        <v>1.0281722329909</v>
+        <v>0.8742423476364919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023676543338773</v>
+        <v>1.002401594405371</v>
       </c>
       <c r="J22">
-        <v>1.02105026008835</v>
+        <v>0.9507694393504832</v>
       </c>
       <c r="K22">
-        <v>1.020465321391271</v>
+        <v>0.950931969830247</v>
       </c>
       <c r="L22">
-        <v>1.027099207490928</v>
+        <v>0.9383474431846892</v>
       </c>
       <c r="M22">
-        <v>1.031911860295515</v>
+        <v>0.8927974959953849</v>
       </c>
       <c r="N22">
-        <v>1.011116311746084</v>
+        <v>0.9879672297364694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014528427367476</v>
+        <v>0.921006339600303</v>
       </c>
       <c r="D23">
-        <v>1.017096255455992</v>
+        <v>0.9383675573747072</v>
       </c>
       <c r="E23">
-        <v>1.023818557891494</v>
+        <v>0.9270380198635164</v>
       </c>
       <c r="F23">
-        <v>1.028817159344181</v>
+        <v>0.8843752513423617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023782196819635</v>
+        <v>1.006136425316914</v>
       </c>
       <c r="J23">
-        <v>1.021390412203231</v>
+        <v>0.9548939115694349</v>
       </c>
       <c r="K23">
-        <v>1.020810189546404</v>
+        <v>0.9549235899607824</v>
       </c>
       <c r="L23">
-        <v>1.02750615254289</v>
+        <v>0.9438577305006793</v>
       </c>
       <c r="M23">
-        <v>1.03248541604529</v>
+        <v>0.902270445360306</v>
       </c>
       <c r="N23">
-        <v>1.011228364136729</v>
+        <v>0.9893231649304921</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016390911127785</v>
+        <v>0.93801783133054</v>
       </c>
       <c r="D24">
-        <v>1.018723549074417</v>
+        <v>0.952892670280598</v>
       </c>
       <c r="E24">
-        <v>1.025680352090852</v>
+        <v>0.9462506430239102</v>
       </c>
       <c r="F24">
-        <v>1.03131396611886</v>
+        <v>0.9159073002783964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024174447011528</v>
+        <v>1.017446402481822</v>
       </c>
       <c r="J24">
-        <v>1.022715317695058</v>
+        <v>0.9681298557847184</v>
       </c>
       <c r="K24">
-        <v>1.02215502785258</v>
+        <v>0.9678008274835269</v>
       </c>
       <c r="L24">
-        <v>1.029086825142385</v>
+        <v>0.9612923243204701</v>
       </c>
       <c r="M24">
-        <v>1.03470046210588</v>
+        <v>0.9315917632915041</v>
       </c>
       <c r="N24">
-        <v>1.011664787715577</v>
+        <v>0.993677231931421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018525161123506</v>
+        <v>0.9540402379821865</v>
       </c>
       <c r="D25">
-        <v>1.02058853013076</v>
+        <v>0.96650603661569</v>
       </c>
       <c r="E25">
-        <v>1.027799827053091</v>
+        <v>0.9637335733700751</v>
       </c>
       <c r="F25">
-        <v>1.034125891266988</v>
+        <v>0.9435517256674323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024581084450274</v>
+        <v>1.026918115206611</v>
       </c>
       <c r="J25">
-        <v>1.024224011147354</v>
+        <v>0.9802198986883581</v>
       </c>
       <c r="K25">
-        <v>1.023689644860536</v>
+        <v>0.9796475533638556</v>
       </c>
       <c r="L25">
-        <v>1.030877712702631</v>
+        <v>0.9769222389704594</v>
       </c>
       <c r="M25">
-        <v>1.037183691109768</v>
+        <v>0.957094459549172</v>
       </c>
       <c r="N25">
-        <v>1.012161698658267</v>
+        <v>0.9976572759973404</v>
       </c>
     </row>
   </sheetData>
